--- a/训练集.xlsx
+++ b/训练集.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11920"/>
+    <workbookView windowWidth="28800" windowHeight="11780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -8546,7 +8547,7 @@
     <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{05E3CBF8-1F22-C0DF-6A02-626553037B0D}">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{8006B775-CCF4-B539-B947-6765DC977EB6}">
       <tableStyleElement type="wholeTable" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -8810,8 +8811,8 @@
   <sheetPr/>
   <dimension ref="A1:D441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="E428" sqref="E428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -15001,4 +15002,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>